--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-22T18:40:24+00:00</t>
+    <t>2022-08-17T09:42:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1743,37 +1743,37 @@
     <col min="1" max="1" width="44.67578125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.9765625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="67.91015625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="63.703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="63.70703125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="50.40625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="41.01953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="247.40625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1983" uniqueCount="451">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T09:42:33+00:00</t>
+    <t>2022-09-13T13:24:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -296,7 +296,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -1141,6 +1141,10 @@
   </si>
   <si>
     <t>Observation.referenceRange.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -5586,13 +5590,13 @@
         <v>81</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5643,7 +5647,7 @@
         <v>81</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -5667,7 +5671,7 @@
         <v>81</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>81</v>
@@ -5678,7 +5682,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5707,7 +5711,7 @@
         <v>138</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>140</v>
@@ -5760,7 +5764,7 @@
         <v>81</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>79</v>
@@ -5784,7 +5788,7 @@
         <v>81</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>81</v>
@@ -5795,11 +5799,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5821,10 +5825,10 @@
         <v>137</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>140</v>
@@ -5879,7 +5883,7 @@
         <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>79</v>
@@ -5914,7 +5918,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5937,13 +5941,13 @@
         <v>81</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5994,7 +5998,7 @@
         <v>81</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>79</v>
@@ -6003,7 +6007,7 @@
         <v>91</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>103</v>
@@ -6015,10 +6019,10 @@
         <v>81</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>81</v>
@@ -6029,7 +6033,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6052,13 +6056,13 @@
         <v>81</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6109,7 +6113,7 @@
         <v>81</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>79</v>
@@ -6118,7 +6122,7 @@
         <v>91</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>103</v>
@@ -6130,10 +6134,10 @@
         <v>81</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>81</v>
@@ -6144,7 +6148,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6170,16 +6174,16 @@
         <v>189</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>81</v>
@@ -6207,10 +6211,10 @@
         <v>115</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>81</v>
@@ -6228,7 +6232,7 @@
         <v>81</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -6246,10 +6250,10 @@
         <v>81</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>303</v>
@@ -6263,7 +6267,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6289,16 +6293,16 @@
         <v>189</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>81</v>
@@ -6326,10 +6330,10 @@
         <v>205</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>81</v>
@@ -6347,7 +6351,7 @@
         <v>81</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>79</v>
@@ -6365,10 +6369,10 @@
         <v>81</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>303</v>
@@ -6382,7 +6386,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6405,17 +6409,17 @@
         <v>81</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>81</v>
@@ -6464,7 +6468,7 @@
         <v>81</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>79</v>
@@ -6488,7 +6492,7 @@
         <v>81</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>81</v>
@@ -6499,7 +6503,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6522,13 +6526,13 @@
         <v>81</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6579,7 +6583,7 @@
         <v>81</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>79</v>
@@ -6600,10 +6604,10 @@
         <v>81</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>81</v>
@@ -6614,7 +6618,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6637,16 +6641,16 @@
         <v>92</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6696,7 +6700,7 @@
         <v>81</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>79</v>
@@ -6717,10 +6721,10 @@
         <v>81</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>81</v>
@@ -6731,7 +6735,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6754,16 +6758,16 @@
         <v>92</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6813,7 +6817,7 @@
         <v>81</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -6834,10 +6838,10 @@
         <v>81</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>81</v>
@@ -6848,7 +6852,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6874,16 +6878,16 @@
         <v>351</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>81</v>
@@ -6932,7 +6936,7 @@
         <v>81</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>79</v>
@@ -6953,10 +6957,10 @@
         <v>81</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>81</v>
@@ -6967,7 +6971,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6990,13 +6994,13 @@
         <v>81</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>360</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7047,7 +7051,7 @@
         <v>81</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>79</v>
@@ -7071,7 +7075,7 @@
         <v>81</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>81</v>
@@ -7082,7 +7086,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7111,7 +7115,7 @@
         <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>140</v>
@@ -7164,7 +7168,7 @@
         <v>81</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>79</v>
@@ -7188,7 +7192,7 @@
         <v>81</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>81</v>
@@ -7199,11 +7203,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7225,10 +7229,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>140</v>
@@ -7283,7 +7287,7 @@
         <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>79</v>
@@ -7318,7 +7322,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7344,13 +7348,13 @@
         <v>189</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>203</v>
@@ -7402,7 +7406,7 @@
         <v>81</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>91</v>
@@ -7420,7 +7424,7 @@
         <v>81</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>210</v>
@@ -7437,7 +7441,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7460,16 +7464,16 @@
         <v>92</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L49" t="s" s="2">
         <v>272</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>274</v>
@@ -7521,7 +7525,7 @@
         <v>81</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>79</v>
@@ -7539,7 +7543,7 @@
         <v>81</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>279</v>
@@ -7556,7 +7560,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7582,13 +7586,13 @@
         <v>189</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N50" t="s" s="2">
         <v>287</v>
@@ -7640,7 +7644,7 @@
         <v>81</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>79</v>
@@ -7675,7 +7679,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7759,7 +7763,7 @@
         <v>81</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>79</v>
@@ -7794,7 +7798,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7820,10 +7824,10 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M52" t="s" s="2">
         <v>354</v>
@@ -7878,7 +7882,7 @@
         <v>81</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>79</v>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-13T13:24:33+00:00</t>
+    <t>2022-09-14T08:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:32:49+00:00</t>
+    <t>2022-09-14T08:40:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T08:40:35+00:00</t>
+    <t>2022-09-14T09:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-14T09:10:35+00:00</t>
+    <t>2022-09-16T12:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-16T12:02:49+00:00</t>
+    <t>2022-09-19T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T10:13:53+00:00</t>
+    <t>2022-09-19T11:28:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:28:39+00:00</t>
+    <t>2022-09-19T11:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:39:45+00:00</t>
+    <t>2022-09-19T11:47:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-19T11:47:22+00:00</t>
+    <t>2022-10-06T11:53:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T11:53:08+00:00</t>
+    <t>2022-10-06T13:57:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-hiv-date-recency-test.xlsx
+++ b/StructureDefinition-hiv-date-recency-test.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-06T13:57:21+00:00</t>
+    <t>2022-10-06T14:49:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
